--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1053"/>
+  <dimension ref="A1:Y1054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61891,7 +61891,7 @@
       </c>
       <c r="R1052" s="2" t="inlineStr"/>
     </row>
-    <row r="1053">
+    <row r="1053" ht="15" customHeight="1">
       <c r="A1053" t="inlineStr">
         <is>
           <t>A 38172-2023</t>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -61947,6 +61947,63 @@
         <v>0</v>
       </c>
       <c r="R1053" s="2" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>A 42758-2023</t>
+        </is>
+      </c>
+      <c r="B1054" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1054" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>VÄXJÖ</t>
+        </is>
+      </c>
+      <c r="G1054" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50269,7 +50269,7 @@
         <v>44609</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>44610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50383,7 +50383,7 @@
         <v>44617</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44620</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>44636</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>44641</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44643</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44645</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>44650</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>44651</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>44651</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>44651</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>44651</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>44652</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>44656</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44670</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         <v>44671</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44676</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44676</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>44676</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>44676</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>44676</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51600,7 +51600,7 @@
         <v>44679</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>44690</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>44691</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>44691</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>44698</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>44704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>44705</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51999,7 +51999,7 @@
         <v>44705</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52056,7 +52056,7 @@
         <v>44712</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>44721</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52170,7 +52170,7 @@
         <v>44732</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52227,7 +52227,7 @@
         <v>44735</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52284,7 +52284,7 @@
         <v>44735</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52341,7 +52341,7 @@
         <v>44741</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52398,7 +52398,7 @@
         <v>44741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>44741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52512,7 +52512,7 @@
         <v>44741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44743</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44746</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>44746</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>44747</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52802,7 +52802,7 @@
         <v>44749</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52859,7 +52859,7 @@
         <v>44749</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         <v>44749</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44749</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>44750</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>44760</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44761</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>44764</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>44769</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44776</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>44782</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44792</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44796</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>44802</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>44812</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>44812</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>44812</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>44814</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>44820</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>44831</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>44845</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>44858</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>44858</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>44872</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>44872</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>44874</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>44880</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44894</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44894</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44894</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>44894</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>44894</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>44894</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54795,7 +54795,7 @@
         <v>44896</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
         <v>44896</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         <v>44896</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54966,7 +54966,7 @@
         <v>44897</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55023,7 +55023,7 @@
         <v>44897</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>44903</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44903</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44908</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44915</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>44915</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>44922</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55427,7 +55427,7 @@
         <v>44928</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55484,7 +55484,7 @@
         <v>44929</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>44937</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55660,7 +55660,7 @@
         <v>44938</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55717,7 +55717,7 @@
         <v>44940</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44942</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>44942</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44951</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55955,7 +55955,7 @@
         <v>44952</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56017,7 +56017,7 @@
         <v>44963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>44963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>44963</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56188,7 +56188,7 @@
         <v>44963</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56245,7 +56245,7 @@
         <v>44967</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>44972</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>44977</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56416,7 +56416,7 @@
         <v>44981</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56473,7 +56473,7 @@
         <v>44981</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56530,7 +56530,7 @@
         <v>44986</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56587,7 +56587,7 @@
         <v>44986</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56644,7 +56644,7 @@
         <v>44991</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56701,7 +56701,7 @@
         <v>44992</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56758,7 +56758,7 @@
         <v>44993</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56820,7 +56820,7 @@
         <v>44993</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56882,7 +56882,7 @@
         <v>44995</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56944,7 +56944,7 @@
         <v>44995</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57001,7 +57001,7 @@
         <v>44998</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57058,7 +57058,7 @@
         <v>45000</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         <v>45006</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57172,7 +57172,7 @@
         <v>45009</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57234,7 +57234,7 @@
         <v>45012</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57291,7 +57291,7 @@
         <v>45014</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57348,7 +57348,7 @@
         <v>45019</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57405,7 +57405,7 @@
         <v>45020</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>45027</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57519,7 +57519,7 @@
         <v>45028</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57576,7 +57576,7 @@
         <v>45028</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57633,7 +57633,7 @@
         <v>45030</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57690,7 +57690,7 @@
         <v>45030</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45033</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45036</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45037</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57923,7 +57923,7 @@
         <v>45048</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57980,7 +57980,7 @@
         <v>45048</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58037,7 +58037,7 @@
         <v>45055</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58094,7 +58094,7 @@
         <v>45057</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58151,7 +58151,7 @@
         <v>45058</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45058</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45061</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58322,7 +58322,7 @@
         <v>45061</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -58379,7 +58379,7 @@
         <v>45061</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -58436,7 +58436,7 @@
         <v>45063</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -58493,7 +58493,7 @@
         <v>45065</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -58550,7 +58550,7 @@
         <v>45065</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -58607,7 +58607,7 @@
         <v>45071</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -58669,7 +58669,7 @@
         <v>45078</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45084</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45084</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>45091</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -58907,7 +58907,7 @@
         <v>45091</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -58969,7 +58969,7 @@
         <v>45091</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         <v>45091</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45092</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45092</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45097</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45097</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -59326,7 +59326,7 @@
         <v>45098</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -59383,7 +59383,7 @@
         <v>45103</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -59440,7 +59440,7 @@
         <v>45103</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -59497,7 +59497,7 @@
         <v>45103</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -59554,7 +59554,7 @@
         <v>45103</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -59611,7 +59611,7 @@
         <v>45103</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -59668,7 +59668,7 @@
         <v>45108</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -59725,7 +59725,7 @@
         <v>45111</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -59782,7 +59782,7 @@
         <v>45112</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -59839,7 +59839,7 @@
         <v>45112</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -59896,7 +59896,7 @@
         <v>45113</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45113</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -60010,7 +60010,7 @@
         <v>45114</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         <v>45114</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -60124,7 +60124,7 @@
         <v>45118</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -60181,7 +60181,7 @@
         <v>45121</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -60238,7 +60238,7 @@
         <v>45121</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -60295,7 +60295,7 @@
         <v>45121</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45121</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45121</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45121</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45121</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45121</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -60637,7 +60637,7 @@
         <v>45121</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -60694,7 +60694,7 @@
         <v>45121</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -60751,7 +60751,7 @@
         <v>45121</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45121</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -60865,7 +60865,7 @@
         <v>45121</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -60922,7 +60922,7 @@
         <v>45121</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -60979,7 +60979,7 @@
         <v>45121</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -61036,7 +61036,7 @@
         <v>45121</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -61093,7 +61093,7 @@
         <v>45124</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -61150,7 +61150,7 @@
         <v>45127</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -61207,7 +61207,7 @@
         <v>45127</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -61264,7 +61264,7 @@
         <v>45127</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45128</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45128</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         <v>45138</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -61492,7 +61492,7 @@
         <v>45138</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45139</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45141</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45145</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -61720,7 +61720,7 @@
         <v>45149</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>45153</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -61844,7 +61844,7 @@
         <v>45160</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -61901,7 +61901,7 @@
         <v>45161</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -61958,7 +61958,7 @@
         <v>45181</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>

--- a/Översikt VÄXJÖ.xlsx
+++ b/Översikt VÄXJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43347</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43479</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43497</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43676</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43808</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44235</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44264</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43646</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44161</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44386</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44532</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44673</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44930</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>45098</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43326</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43331</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43331</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43339</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43340</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43340</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43349</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43353</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43354</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43360</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43361</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43364</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43364</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43366</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43367</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43390</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43392</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43396</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43410</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43410</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43410</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43412</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43412</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43416</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43416</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43418</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43418</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43421</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43423</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43424</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43424</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43424</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43424</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43424</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43424</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43426</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43426</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43426</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43430</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43430</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43430</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43431</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43431</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43433</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43434</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43451</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43453</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43454</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43454</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43454</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43454</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43454</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>43455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>43455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43455</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43455</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43455</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43455</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>43455</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>43455</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>43455</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>43455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43455</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43455</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43469</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43469</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43473</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43473</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43474</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43474</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43474</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43475</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43476</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43476</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43476</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43479</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43479</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43480</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43480</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43480</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43480</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43483</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43484</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43486</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43486</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43488</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>43490</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43490</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43495</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43495</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43496</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43496</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43496</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43500</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43500</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43500</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43500</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43501</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43502</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43502</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43502</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>43504</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43508</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>43511</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43514</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43514</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43516</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43516</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43516</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43516</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>43518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43521</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43522</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43523</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43523</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>43524</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43524</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>43531</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>43535</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43535</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>43535</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>43536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43537</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43538</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43539</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43539</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43542</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43542</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43546</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43549</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43553</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43553</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43553</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43553</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43553</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43557</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43558</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43565</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43565</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43572</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43578</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43578</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43578</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43578</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43581</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43584</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43585</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43585</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43585</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43587</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43587</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43591</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43594</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43598</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43598</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43601</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43605</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>43607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>43608</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>43619</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>43619</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>43619</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>43620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>43620</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>43626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>43627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>43641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>43641</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>43642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>43642</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>43643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>43643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>43643</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>43643</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>43643</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>43646</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>43647</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43647</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>43649</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>43649</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>43649</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>43650</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>43651</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43653</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43654</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43655</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43655</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43662</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43663</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43663</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43669</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43669</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43670</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43670</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43675</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43676</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43681</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43682</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43684</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43686</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43688</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43688</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43693</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43693</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43696</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>43698</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>43701</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>43703</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>43703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>43705</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>43705</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43705</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>43706</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>43706</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>43707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>43707</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>43707</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>43707</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>43707</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>43708</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>43708</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>43710</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>43711</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>43711</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>43711</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>43711</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>43714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>43714</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>43714</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>43715</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>43715</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>43717</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43717</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43718</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43718</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43719</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43719</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43720</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43720</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>43720</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43721</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43721</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43724</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>43724</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>43725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>43725</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>43725</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>43725</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>43727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>43731</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>43732</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>43732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>43732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>43733</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>43733</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>43733</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43739</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>43745</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>43745</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>43746</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>43746</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>43749</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>43749</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>43752</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>43752</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43752</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>43756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>43756</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>43756</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>43756</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>43761</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>43763</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>43763</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>43766</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>43767</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>43768</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>43769</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>43776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>43782</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>43783</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>43791</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>43791</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>43795</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>43796</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>43796</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>43796</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>43797</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>43797</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>43797</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>43798</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>43798</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>43802</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>43802</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>43802</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>43802</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>43805</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>43805</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>43815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>43816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>43817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>43822</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>43837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>43837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>43837</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>43838</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>43839</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>43839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>43839</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>43839</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>43844</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>43844</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>43844</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>43844</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>43846</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>43847</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>43847</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>43847</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>43849</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>43851</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>43857</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>43858</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>43860</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43861</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>43861</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>43867</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>43867</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>43867</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43867</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>43872</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>43873</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>43874</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>43875</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>43878</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>43879</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>43880</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>43880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>43881</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>43881</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>43885</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>43887</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>43894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>43894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>43899</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>43899</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>43899</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>43902</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>43908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>43909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>43909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>43909</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>43909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>43914</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>43914</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>43916</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>43916</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>43920</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>43920</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>43921</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>43927</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>43929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>43929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>43936</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>43936</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>43936</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>43938</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>43941</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>43941</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>43941</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>43943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>43948</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>43950</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>43963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>43963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>43964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>43970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>43970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>43971</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>43976</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>43977</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>43979</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>43980</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>43983</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>43983</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>43984</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>43986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>43986</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>43987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>43990</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>43990</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>43992</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>43992</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>43992</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>43994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>43997</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44007</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>44013</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>44020</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>44025</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>44025</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44025</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44027</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44028</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44041</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44048</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44049</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44060</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44061</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44063</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44064</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44067</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44067</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44068</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44069</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44075</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44075</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34900,7 +34900,7 @@
         <v>44075</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44082</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44084</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44085</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>44088</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>44090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>44090</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>44095</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44096</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>44098</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44098</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>44102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>44102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44102</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>44102</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44104</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>44105</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>44105</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44105</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44105</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>44105</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44108</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>44110</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44116</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>44118</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>44118</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>44119</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44123</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44125</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44125</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>44127</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>44127</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44127</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44127</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44138</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44140</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>44144</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44144</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44145</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>44152</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>44158</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>44159</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>44161</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>44161</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>44166</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44167</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44168</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44169</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>44172</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44172</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44172</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44172</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44173</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44174</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44175</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44175</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44180</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>44180</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44180</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>44180</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44181</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>44181</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44183</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>44187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44193</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44193</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44194</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44194</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>44194</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>44195</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44201</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44201</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44204</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44207</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44207</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>44209</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>44209</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44209</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>44210</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>44210</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>44214</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>44216</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44216</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>44223</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>44223</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44224</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>44224</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44224</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44224</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44224</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44224</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44224</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>44224</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>44224</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>44228</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44228</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44229</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44230</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44231</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44231</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44235</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44235</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44236</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44237</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44238</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44242</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44243</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44244</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44244</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44244</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44244</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44244</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44244</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44244</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44245</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>44246</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>44247</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44251</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44251</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44253</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44254</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44254</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44256</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44256</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44262</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44264</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44264</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44264</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44264</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44265</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44266</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44274</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>44277</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44298</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44299</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44305</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>44305</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44305</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>44308</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44308</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44314</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44314</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44317</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44320</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44322</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44322</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44323</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44323</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>44327</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44327</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>44333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44334</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44334</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44336</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44336</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44340</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44354</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44354</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44354</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44354</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>44355</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>44357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44358</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>44358</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>44358</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44361</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44363</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44370</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44370</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44377</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44384</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44386</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44386</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44387</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44393</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44393</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44393</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>44396</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44397</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44400</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44412</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44424</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44426</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44427</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>44428</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44428</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>44432</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>44434</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>44434</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>44434</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44438</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44438</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44438</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46415,7 +46415,7 @@
         <v>44439</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>44442</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>44445</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>44461</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46643,7 +46643,7 @@
         <v>44461</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         <v>44468</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46757,7 +46757,7 @@
         <v>44470</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44470</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44473</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44473</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44473</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44474</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>44474</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44474</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>44474</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44474</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44476</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44480</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44483</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>44483</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44483</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44487</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44489</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44489</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44489</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47840,7 +47840,7 @@
         <v>44494</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47897,7 +47897,7 @@
         <v>44495</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>44496</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>44496</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44498</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>44501</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44501</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>44502</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>44512</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>44515</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>44522</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>44529</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>44532</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>44532</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>44536</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>44536</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44537</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44543</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>44543</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44544</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>44546</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>44547</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>44551</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>44552</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>44571</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>44573</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44573</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44578</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>44579</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44590</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>44590</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>44595</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44596</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>44599</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44599</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>44600</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44601</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>44603</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44606</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44607</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>44607</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>44609</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45189</v>
+        <v>45190<